--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H2">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N2">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q2">
-        <v>348.4932886644906</v>
+        <v>757.2722627278207</v>
       </c>
       <c r="R2">
-        <v>3136.439597980416</v>
+        <v>6815.450364550386</v>
       </c>
       <c r="S2">
-        <v>0.05239645011360498</v>
+        <v>0.07828095485148873</v>
       </c>
       <c r="T2">
-        <v>0.05239645011360498</v>
+        <v>0.07828095485148871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H3">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
         <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q3">
-        <v>6.343376289189333</v>
+        <v>9.953042024617112</v>
       </c>
       <c r="R3">
-        <v>57.09038660270399</v>
+        <v>89.57737822155401</v>
       </c>
       <c r="S3">
-        <v>0.0009537354379536438</v>
+        <v>0.001028868574371723</v>
       </c>
       <c r="T3">
-        <v>0.0009537354379536438</v>
+        <v>0.001028868574371723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H4">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N4">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q4">
-        <v>7.212535138050668</v>
+        <v>1.924556269024333</v>
       </c>
       <c r="R4">
-        <v>64.912816242456</v>
+        <v>17.321006421219</v>
       </c>
       <c r="S4">
-        <v>0.001084414678405259</v>
+        <v>0.0001989457554697105</v>
       </c>
       <c r="T4">
-        <v>0.001084414678405259</v>
+        <v>0.0001989457554697106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H5">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N5">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q5">
-        <v>9.939840611549334</v>
+        <v>6.863244136883556</v>
       </c>
       <c r="R5">
-        <v>89.45856550394399</v>
+        <v>61.769197231952</v>
       </c>
       <c r="S5">
-        <v>0.001494468845400457</v>
+        <v>0.0007094691445304253</v>
       </c>
       <c r="T5">
-        <v>0.001494468845400457</v>
+        <v>0.0007094691445304252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H6">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N6">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q6">
-        <v>9.477741462765332</v>
+        <v>35.03134606007644</v>
       </c>
       <c r="R6">
-        <v>85.29967316488798</v>
+        <v>315.282114540688</v>
       </c>
       <c r="S6">
-        <v>0.00142499159638488</v>
+        <v>0.00362126985800001</v>
       </c>
       <c r="T6">
-        <v>0.00142499159638488</v>
+        <v>0.00362126985800001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H7">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N7">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q7">
-        <v>10.88746413712533</v>
+        <v>11.82907207345356</v>
       </c>
       <c r="R7">
-        <v>97.98717723412798</v>
+        <v>106.461648661082</v>
       </c>
       <c r="S7">
-        <v>0.001636945359007362</v>
+        <v>0.00122279806417503</v>
       </c>
       <c r="T7">
-        <v>0.001636945359007362</v>
+        <v>0.00122279806417503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N8">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q8">
-        <v>1072.99189123808</v>
+        <v>1485.99965194505</v>
       </c>
       <c r="R8">
-        <v>9656.927021142719</v>
+        <v>13373.99686750545</v>
       </c>
       <c r="S8">
-        <v>0.1613258215588911</v>
+        <v>0.1536111612542294</v>
       </c>
       <c r="T8">
-        <v>0.1613258215588911</v>
+        <v>0.1536111612542294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
         <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q9">
         <v>19.53091076002</v>
@@ -1013,10 +1013,10 @@
         <v>175.77819684018</v>
       </c>
       <c r="S9">
-        <v>0.002936499567129058</v>
+        <v>0.00201895463318072</v>
       </c>
       <c r="T9">
-        <v>0.002936499567129058</v>
+        <v>0.00201895463318072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N10">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q10">
-        <v>22.20700360703</v>
+        <v>3.77656767147</v>
       </c>
       <c r="R10">
-        <v>199.86303246327</v>
+        <v>33.98910904323</v>
       </c>
       <c r="S10">
-        <v>0.003338853844581811</v>
+        <v>0.0003903923832084045</v>
       </c>
       <c r="T10">
-        <v>0.003338853844581812</v>
+        <v>0.0003903923832084047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N11">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q11">
-        <v>30.60422889997</v>
+        <v>13.46778285776</v>
       </c>
       <c r="R11">
-        <v>275.43806009973</v>
+        <v>121.21004571984</v>
       </c>
       <c r="S11">
-        <v>0.004601388333668701</v>
+        <v>0.001392195322248177</v>
       </c>
       <c r="T11">
-        <v>0.004601388333668701</v>
+        <v>0.001392195322248177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N12">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q12">
-        <v>29.18145074118999</v>
+        <v>68.74220886544001</v>
       </c>
       <c r="R12">
-        <v>262.6330566707099</v>
+        <v>618.6798797889601</v>
       </c>
       <c r="S12">
-        <v>0.004387471660825643</v>
+        <v>0.007106038360896936</v>
       </c>
       <c r="T12">
-        <v>0.004387471660825643</v>
+        <v>0.007106038360896937</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N13">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q13">
-        <v>33.52191022114</v>
+        <v>23.21225515466</v>
       </c>
       <c r="R13">
-        <v>301.69719199026</v>
+        <v>208.91029639194</v>
       </c>
       <c r="S13">
-        <v>0.00504006577385109</v>
+        <v>0.002399503569849186</v>
       </c>
       <c r="T13">
-        <v>0.00504006577385109</v>
+        <v>0.002399503569849186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H14">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N14">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q14">
-        <v>1191.948897040597</v>
+        <v>2131.303690296387</v>
       </c>
       <c r="R14">
-        <v>10727.54007336537</v>
+        <v>19181.73321266748</v>
       </c>
       <c r="S14">
-        <v>0.179211172648668</v>
+        <v>0.2203177062816425</v>
       </c>
       <c r="T14">
-        <v>0.179211172648668</v>
+        <v>0.2203177062816425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H15">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
         <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q15">
-        <v>21.69620080888266</v>
+        <v>28.01232296602134</v>
       </c>
       <c r="R15">
-        <v>195.265807279944</v>
+        <v>252.1109066941921</v>
       </c>
       <c r="S15">
-        <v>0.003262053934220312</v>
+        <v>0.002895697488627794</v>
       </c>
       <c r="T15">
-        <v>0.003262053934220312</v>
+        <v>0.002895697488627794</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H16">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N16">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q16">
-        <v>24.66897809025733</v>
+        <v>5.416564266568001</v>
       </c>
       <c r="R16">
-        <v>222.020802812316</v>
+        <v>48.74907839911201</v>
       </c>
       <c r="S16">
-        <v>0.003709015128564475</v>
+        <v>0.0005599225584653377</v>
       </c>
       <c r="T16">
-        <v>0.003709015128564477</v>
+        <v>0.0005599225584653378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H17">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N17">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q17">
-        <v>33.99715988534266</v>
+        <v>19.31624631761067</v>
       </c>
       <c r="R17">
-        <v>305.974438968084</v>
+        <v>173.846216858496</v>
       </c>
       <c r="S17">
-        <v>0.005111520221129917</v>
+        <v>0.001996764281900807</v>
       </c>
       <c r="T17">
-        <v>0.005111520221129918</v>
+        <v>0.001996764281900807</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H18">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N18">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q18">
-        <v>32.41664574451865</v>
+        <v>98.59391504046934</v>
       </c>
       <c r="R18">
-        <v>291.7498117006679</v>
+        <v>887.3452353642241</v>
       </c>
       <c r="S18">
-        <v>0.004873887724243413</v>
+        <v>0.01019187707220767</v>
       </c>
       <c r="T18">
-        <v>0.004873887724243414</v>
+        <v>0.01019187707220767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H19">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N19">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q19">
-        <v>37.23830929297866</v>
+        <v>33.29231269097068</v>
       </c>
       <c r="R19">
-        <v>335.1447836368079</v>
+        <v>299.630814218736</v>
       </c>
       <c r="S19">
-        <v>0.00559883153750777</v>
+        <v>0.003441502026332933</v>
       </c>
       <c r="T19">
-        <v>0.00559883153750777</v>
+        <v>0.003441502026332933</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H20">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N20">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q20">
-        <v>498.3434828535325</v>
+        <v>498.8331736081645</v>
       </c>
       <c r="R20">
-        <v>4485.091345681792</v>
+        <v>4489.498562473481</v>
       </c>
       <c r="S20">
-        <v>0.07492663499730653</v>
+        <v>0.05156551885445279</v>
       </c>
       <c r="T20">
-        <v>0.07492663499730653</v>
+        <v>0.05156551885445278</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H21">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
         <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q21">
-        <v>9.070993146294221</v>
+        <v>6.55630449517689</v>
       </c>
       <c r="R21">
-        <v>81.63893831664799</v>
+        <v>59.00674045659201</v>
       </c>
       <c r="S21">
-        <v>0.001363836421906643</v>
+        <v>0.000677740096185223</v>
       </c>
       <c r="T21">
-        <v>0.001363836421906643</v>
+        <v>0.000677740096185223</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H22">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N22">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q22">
-        <v>10.31388551175245</v>
+        <v>1.267750792834667</v>
       </c>
       <c r="R22">
-        <v>92.82496960577201</v>
+        <v>11.409757135512</v>
       </c>
       <c r="S22">
-        <v>0.001550707015807834</v>
+        <v>0.0001310502806736218</v>
       </c>
       <c r="T22">
-        <v>0.001550707015807834</v>
+        <v>0.0001310502806736218</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H23">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N23">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q23">
-        <v>14.21391731344756</v>
+        <v>4.520981452188445</v>
       </c>
       <c r="R23">
-        <v>127.925255821028</v>
+        <v>40.688833069696</v>
       </c>
       <c r="S23">
-        <v>0.002137082215520001</v>
+        <v>0.0004673441275511012</v>
       </c>
       <c r="T23">
-        <v>0.002137082215520001</v>
+        <v>0.000467344127551101</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H24">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N24">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q24">
-        <v>13.55311807650622</v>
+        <v>23.07597728189155</v>
       </c>
       <c r="R24">
-        <v>121.978062688556</v>
+        <v>207.683795537024</v>
       </c>
       <c r="S24">
-        <v>0.002037730132195268</v>
+        <v>0.002385416216422274</v>
       </c>
       <c r="T24">
-        <v>0.002037730132195268</v>
+        <v>0.002385416216422274</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H25">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N25">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q25">
-        <v>15.56901373432622</v>
+        <v>7.792089917548444</v>
       </c>
       <c r="R25">
-        <v>140.121123608936</v>
+        <v>70.128809257936</v>
       </c>
       <c r="S25">
-        <v>0.002340822845039127</v>
+        <v>0.0008054860438663484</v>
       </c>
       <c r="T25">
-        <v>0.002340822845039127</v>
+        <v>0.0008054860438663484</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H26">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N26">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q26">
-        <v>1451.084788134087</v>
+        <v>2282.1173027767</v>
       </c>
       <c r="R26">
-        <v>13059.76309320678</v>
+        <v>20539.0557249903</v>
       </c>
       <c r="S26">
-        <v>0.2181726138929398</v>
+        <v>0.2359076521579574</v>
       </c>
       <c r="T26">
-        <v>0.2181726138929398</v>
+        <v>0.2359076521579574</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H27">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
         <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q27">
-        <v>26.41306773489955</v>
+        <v>29.99450862999089</v>
       </c>
       <c r="R27">
-        <v>237.717609614096</v>
+        <v>269.950577669918</v>
       </c>
       <c r="S27">
-        <v>0.003971241429706046</v>
+        <v>0.003100600525627366</v>
       </c>
       <c r="T27">
-        <v>0.003971241429706046</v>
+        <v>0.003100600525627366</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H28">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N28">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q28">
-        <v>30.03214226252712</v>
+        <v>5.799846868663666</v>
       </c>
       <c r="R28">
-        <v>270.289280362744</v>
+        <v>52.19862181797299</v>
       </c>
       <c r="S28">
-        <v>0.004515374312927272</v>
+        <v>0.0005995433521306616</v>
       </c>
       <c r="T28">
-        <v>0.004515374312927273</v>
+        <v>0.0005995433521306617</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H29">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N29">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q29">
-        <v>41.38831930787289</v>
+        <v>20.68308713902045</v>
       </c>
       <c r="R29">
-        <v>372.494873770856</v>
+        <v>186.147784251184</v>
       </c>
       <c r="S29">
-        <v>0.006222791308869997</v>
+        <v>0.00213805772403023</v>
       </c>
       <c r="T29">
-        <v>0.006222791308869997</v>
+        <v>0.002138057724030229</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H30">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N30">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q30">
-        <v>39.46419317052355</v>
+        <v>105.5705390492995</v>
       </c>
       <c r="R30">
-        <v>355.1777385347119</v>
+        <v>950.1348514436959</v>
       </c>
       <c r="S30">
-        <v>0.005933496270924606</v>
+        <v>0.01091306655177975</v>
       </c>
       <c r="T30">
-        <v>0.005933496270924606</v>
+        <v>0.01091306655177975</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H31">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N31">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q31">
-        <v>45.33411145816356</v>
+        <v>35.64811677821044</v>
       </c>
       <c r="R31">
-        <v>408.007003123472</v>
+        <v>320.833051003894</v>
       </c>
       <c r="S31">
-        <v>0.006816046640568513</v>
+        <v>0.003685026848868856</v>
       </c>
       <c r="T31">
-        <v>0.006816046640568513</v>
+        <v>0.003685026848868856</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H32">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N32">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O32">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P32">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q32">
-        <v>1344.704111993529</v>
+        <v>1747.033655501221</v>
       </c>
       <c r="R32">
-        <v>12102.33700794176</v>
+        <v>15723.30289951099</v>
       </c>
       <c r="S32">
-        <v>0.2021781314401755</v>
+        <v>0.1805948394540321</v>
       </c>
       <c r="T32">
-        <v>0.2021781314401755</v>
+        <v>0.1805948394540321</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H33">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N33">
         <v>1.966766</v>
       </c>
       <c r="O33">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P33">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q33">
-        <v>24.47669569960444</v>
+        <v>22.96175397866622</v>
       </c>
       <c r="R33">
-        <v>220.29026129644</v>
+        <v>206.655785807996</v>
       </c>
       <c r="S33">
-        <v>0.00368010520399124</v>
+        <v>0.002373608693972473</v>
       </c>
       <c r="T33">
-        <v>0.003680105203991241</v>
+        <v>0.002373608693972473</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H34">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N34">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O34">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P34">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q34">
-        <v>27.83045175762889</v>
+        <v>4.439967947300666</v>
       </c>
       <c r="R34">
-        <v>250.47406581866</v>
+        <v>39.959711525706</v>
       </c>
       <c r="S34">
-        <v>0.004184347086699795</v>
+        <v>0.0004589695774313901</v>
       </c>
       <c r="T34">
-        <v>0.004184347086699796</v>
+        <v>0.0004589695774313902</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H35">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N35">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O35">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P35">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q35">
-        <v>38.35409454837111</v>
+        <v>15.83356354538311</v>
       </c>
       <c r="R35">
-        <v>345.18685093534</v>
+        <v>142.502071908448</v>
       </c>
       <c r="S35">
-        <v>0.005766591400820234</v>
+        <v>0.001636751448639554</v>
       </c>
       <c r="T35">
-        <v>0.005766591400820235</v>
+        <v>0.001636751448639553</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H36">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N36">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O36">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P36">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q36">
-        <v>36.57102828646443</v>
+        <v>80.81761814965688</v>
       </c>
       <c r="R36">
-        <v>329.1392545781799</v>
+        <v>727.358563346912</v>
       </c>
       <c r="S36">
-        <v>0.005498504911122608</v>
+        <v>0.008354300862399357</v>
       </c>
       <c r="T36">
-        <v>0.005498504911122608</v>
+        <v>0.008354300862399359</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H37">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N37">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O37">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P37">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q37">
-        <v>42.01061618856444</v>
+        <v>27.28977151656311</v>
       </c>
       <c r="R37">
-        <v>378.09554569708</v>
+        <v>245.607943649068</v>
       </c>
       <c r="S37">
-        <v>0.006316354509441124</v>
+        <v>0.002821005703154004</v>
       </c>
       <c r="T37">
-        <v>0.006316354509441124</v>
+        <v>0.002821005703154004</v>
       </c>
     </row>
   </sheetData>
